--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myl9-Cd69.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myl9-Cd69.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.554286</v>
+        <v>9.290118333333334</v>
       </c>
       <c r="H2">
-        <v>37.662858</v>
+        <v>27.870355</v>
       </c>
       <c r="I2">
-        <v>0.1118293946674877</v>
+        <v>0.1528590235108224</v>
       </c>
       <c r="J2">
-        <v>0.1118293946674877</v>
+        <v>0.1528590235108224</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.029758</v>
+        <v>0.07423700000000001</v>
       </c>
       <c r="N2">
-        <v>0.08927400000000001</v>
+        <v>0.222711</v>
       </c>
       <c r="O2">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793508</v>
       </c>
       <c r="P2">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793506</v>
       </c>
       <c r="Q2">
-        <v>0.373590442788</v>
+        <v>0.6896705147116668</v>
       </c>
       <c r="R2">
-        <v>3.362313985092</v>
+        <v>6.207034632405001</v>
       </c>
       <c r="S2">
-        <v>0.0003845806288776387</v>
+        <v>0.001067326089398881</v>
       </c>
       <c r="T2">
-        <v>0.0003845806288776387</v>
+        <v>0.001067326089398881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.554286</v>
+        <v>9.290118333333334</v>
       </c>
       <c r="H3">
-        <v>37.662858</v>
+        <v>27.870355</v>
       </c>
       <c r="I3">
-        <v>0.1118293946674877</v>
+        <v>0.1528590235108224</v>
       </c>
       <c r="J3">
-        <v>0.1118293946674877</v>
+        <v>0.1528590235108224</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.297976</v>
       </c>
       <c r="O3">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861835</v>
       </c>
       <c r="P3">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861833</v>
       </c>
       <c r="Q3">
-        <v>1.246958641712</v>
+        <v>0.9227441001644445</v>
       </c>
       <c r="R3">
-        <v>11.222627775408</v>
+        <v>8.304696901480002</v>
       </c>
       <c r="S3">
-        <v>0.001283641345413483</v>
+        <v>0.001428028066933025</v>
       </c>
       <c r="T3">
-        <v>0.001283641345413483</v>
+        <v>0.001428028066933025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.554286</v>
+        <v>9.290118333333334</v>
       </c>
       <c r="H4">
-        <v>37.662858</v>
+        <v>27.870355</v>
       </c>
       <c r="I4">
-        <v>0.1118293946674877</v>
+        <v>0.1528590235108224</v>
       </c>
       <c r="J4">
-        <v>0.1118293946674877</v>
+        <v>0.1528590235108224</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.379923</v>
+        <v>0.08773500000000001</v>
       </c>
       <c r="N4">
-        <v>1.139769</v>
+        <v>0.263205</v>
       </c>
       <c r="O4">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="P4">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="Q4">
-        <v>4.769661999978</v>
+        <v>0.8150685319750001</v>
       </c>
       <c r="R4">
-        <v>42.926957999802</v>
+        <v>7.335616787775002</v>
       </c>
       <c r="S4">
-        <v>0.004909974671183518</v>
+        <v>0.001261390606482089</v>
       </c>
       <c r="T4">
-        <v>0.004909974671183519</v>
+        <v>0.001261390606482089</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.554286</v>
+        <v>9.290118333333334</v>
       </c>
       <c r="H5">
-        <v>37.662858</v>
+        <v>27.870355</v>
       </c>
       <c r="I5">
-        <v>0.1118293946674877</v>
+        <v>0.1528590235108224</v>
       </c>
       <c r="J5">
-        <v>0.1118293946674877</v>
+        <v>0.1528590235108224</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.144105333333334</v>
+        <v>10.370688</v>
       </c>
       <c r="N5">
-        <v>24.432316</v>
+        <v>31.112064</v>
       </c>
       <c r="O5">
-        <v>0.9411764977800856</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="P5">
-        <v>0.9411764977800857</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="Q5">
-        <v>102.243427568792</v>
+        <v>96.34491871808</v>
       </c>
       <c r="R5">
-        <v>920.190848119128</v>
+        <v>867.1042684627201</v>
       </c>
       <c r="S5">
-        <v>0.1052511980220131</v>
+        <v>0.1491022787480084</v>
       </c>
       <c r="T5">
-        <v>0.1052511980220131</v>
+        <v>0.1491022787480084</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>29.995756</v>
       </c>
       <c r="I6">
-        <v>0.08906406508166911</v>
+        <v>0.1645160950274545</v>
       </c>
       <c r="J6">
-        <v>0.08906406508166911</v>
+        <v>0.1645160950274545</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.029758</v>
+        <v>0.07423700000000001</v>
       </c>
       <c r="N6">
-        <v>0.08927400000000001</v>
+        <v>0.222711</v>
       </c>
       <c r="O6">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793508</v>
       </c>
       <c r="P6">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793506</v>
       </c>
       <c r="Q6">
-        <v>0.2975379023493334</v>
+        <v>0.7422649793906667</v>
       </c>
       <c r="R6">
-        <v>2.677841121144</v>
+        <v>6.680384814516001</v>
       </c>
       <c r="S6">
-        <v>0.0003062907946640747</v>
+        <v>0.001148720672917264</v>
       </c>
       <c r="T6">
-        <v>0.0003062907946640748</v>
+        <v>0.001148720672917264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>29.995756</v>
       </c>
       <c r="I7">
-        <v>0.08906406508166911</v>
+        <v>0.1645160950274545</v>
       </c>
       <c r="J7">
-        <v>0.08906406508166911</v>
+        <v>0.1645160950274545</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>0.297976</v>
       </c>
       <c r="O7">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861835</v>
       </c>
       <c r="P7">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861833</v>
       </c>
       <c r="Q7">
         <v>0.9931128210951111</v>
@@ -883,10 +883,10 @@
         <v>8.938015389856</v>
       </c>
       <c r="S7">
-        <v>0.001022327954732871</v>
+        <v>0.001536929883271121</v>
       </c>
       <c r="T7">
-        <v>0.001022327954732871</v>
+        <v>0.00153692988327112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>29.995756</v>
       </c>
       <c r="I8">
-        <v>0.08906406508166911</v>
+        <v>0.1645160950274545</v>
       </c>
       <c r="J8">
-        <v>0.08906406508166911</v>
+        <v>0.1645160950274545</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.379923</v>
+        <v>0.08773500000000001</v>
       </c>
       <c r="N8">
-        <v>1.139769</v>
+        <v>0.263205</v>
       </c>
       <c r="O8">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="P8">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="Q8">
-        <v>3.798692535596</v>
+        <v>0.87722588422</v>
       </c>
       <c r="R8">
-        <v>34.188232820364</v>
+        <v>7.895032957980001</v>
       </c>
       <c r="S8">
-        <v>0.003910441480649212</v>
+        <v>0.001357584603882109</v>
       </c>
       <c r="T8">
-        <v>0.003910441480649213</v>
+        <v>0.001357584603882109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>29.995756</v>
       </c>
       <c r="I9">
-        <v>0.08906406508166911</v>
+        <v>0.1645160950274545</v>
       </c>
       <c r="J9">
-        <v>0.08906406508166911</v>
+        <v>0.1645160950274545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.144105333333334</v>
+        <v>10.370688</v>
       </c>
       <c r="N9">
-        <v>24.432316</v>
+        <v>31.112064</v>
       </c>
       <c r="O9">
-        <v>0.9411764977800856</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="P9">
-        <v>0.9411764977800857</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="Q9">
-        <v>81.42953213898845</v>
+        <v>103.692208933376</v>
       </c>
       <c r="R9">
-        <v>732.865789250896</v>
+        <v>933.229880400384</v>
       </c>
       <c r="S9">
-        <v>0.08382500485162295</v>
+        <v>0.160472859867384</v>
       </c>
       <c r="T9">
-        <v>0.08382500485162296</v>
+        <v>0.160472859867384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>89.44900033333334</v>
+        <v>41.27522</v>
       </c>
       <c r="H10">
-        <v>268.347001</v>
+        <v>123.82566</v>
       </c>
       <c r="I10">
-        <v>0.7967818767939948</v>
+        <v>0.6791398772345419</v>
       </c>
       <c r="J10">
-        <v>0.7967818767939948</v>
+        <v>0.6791398772345419</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.029758</v>
+        <v>0.07423700000000001</v>
       </c>
       <c r="N10">
-        <v>0.08927400000000001</v>
+        <v>0.222711</v>
       </c>
       <c r="O10">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793508</v>
       </c>
       <c r="P10">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793506</v>
       </c>
       <c r="Q10">
-        <v>2.661823351919334</v>
+        <v>3.06414850714</v>
       </c>
       <c r="R10">
-        <v>23.956410167274</v>
+        <v>27.57733656426</v>
       </c>
       <c r="S10">
-        <v>0.002740128176199702</v>
+        <v>0.004742040690010423</v>
       </c>
       <c r="T10">
-        <v>0.002740128176199702</v>
+        <v>0.004742040690010422</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>89.44900033333334</v>
+        <v>41.27522</v>
       </c>
       <c r="H11">
-        <v>268.347001</v>
+        <v>123.82566</v>
       </c>
       <c r="I11">
-        <v>0.7967818767939948</v>
+        <v>0.6791398772345419</v>
       </c>
       <c r="J11">
-        <v>0.7967818767939948</v>
+        <v>0.6791398772345419</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>0.297976</v>
       </c>
       <c r="O11">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861835</v>
       </c>
       <c r="P11">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861833</v>
       </c>
       <c r="Q11">
-        <v>8.884551774441778</v>
+        <v>4.099674984906667</v>
       </c>
       <c r="R11">
-        <v>79.96096596997602</v>
+        <v>36.89707486416</v>
       </c>
       <c r="S11">
-        <v>0.009145915198504405</v>
+        <v>0.006344609456410082</v>
       </c>
       <c r="T11">
-        <v>0.009145915198504408</v>
+        <v>0.006344609456410081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>89.44900033333334</v>
+        <v>41.27522</v>
       </c>
       <c r="H12">
-        <v>268.347001</v>
+        <v>123.82566</v>
       </c>
       <c r="I12">
-        <v>0.7967818767939948</v>
+        <v>0.6791398772345419</v>
       </c>
       <c r="J12">
-        <v>0.7967818767939948</v>
+        <v>0.6791398772345419</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,28 +1175,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.379923</v>
+        <v>0.08773500000000001</v>
       </c>
       <c r="N12">
-        <v>1.139769</v>
+        <v>0.263205</v>
       </c>
       <c r="O12">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="P12">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="Q12">
-        <v>33.983732553641</v>
+        <v>3.6212814267</v>
       </c>
       <c r="R12">
-        <v>305.853592982769</v>
+        <v>32.5915328403</v>
       </c>
       <c r="S12">
-        <v>0.03498345712367495</v>
+        <v>0.005604253134394769</v>
       </c>
       <c r="T12">
-        <v>0.03498345712367496</v>
+        <v>0.005604253134394769</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>89.44900033333334</v>
+        <v>41.27522</v>
       </c>
       <c r="H13">
-        <v>268.347001</v>
+        <v>123.82566</v>
       </c>
       <c r="I13">
-        <v>0.7967818767939948</v>
+        <v>0.6791398772345419</v>
       </c>
       <c r="J13">
-        <v>0.7967818767939948</v>
+        <v>0.6791398772345419</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.144105333333334</v>
+        <v>10.370688</v>
       </c>
       <c r="N13">
-        <v>24.432316</v>
+        <v>31.112064</v>
       </c>
       <c r="O13">
-        <v>0.9411764977800856</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="P13">
-        <v>0.9411764977800857</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="Q13">
-        <v>728.4820806760353</v>
+        <v>428.05242875136</v>
       </c>
       <c r="R13">
-        <v>6556.338726084316</v>
+        <v>3852.47185876224</v>
       </c>
       <c r="S13">
-        <v>0.7499123762956157</v>
+        <v>0.6624489739537267</v>
       </c>
       <c r="T13">
-        <v>0.7499123762956158</v>
+        <v>0.6624489739537267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2609733333333333</v>
+        <v>0.2118036666666666</v>
       </c>
       <c r="H14">
-        <v>0.7829199999999999</v>
+        <v>0.6354109999999999</v>
       </c>
       <c r="I14">
-        <v>0.002324663456848375</v>
+        <v>0.003485004227181002</v>
       </c>
       <c r="J14">
-        <v>0.002324663456848375</v>
+        <v>0.003485004227181002</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.029758</v>
+        <v>0.07423700000000001</v>
       </c>
       <c r="N14">
-        <v>0.08927400000000001</v>
+        <v>0.222711</v>
       </c>
       <c r="O14">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793508</v>
       </c>
       <c r="P14">
-        <v>0.003438994103662517</v>
+        <v>0.006982421219793506</v>
       </c>
       <c r="Q14">
-        <v>0.007766044453333334</v>
+        <v>0.01572366880233333</v>
       </c>
       <c r="R14">
-        <v>0.06989440008</v>
+        <v>0.141513019221</v>
       </c>
       <c r="S14">
-        <v>7.994503921101285E-06</v>
+        <v>2.43337674669387E-05</v>
       </c>
       <c r="T14">
-        <v>7.994503921101285E-06</v>
+        <v>2.43337674669387E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2609733333333333</v>
+        <v>0.2118036666666666</v>
       </c>
       <c r="H15">
-        <v>0.7829199999999999</v>
+        <v>0.6354109999999999</v>
       </c>
       <c r="I15">
-        <v>0.002324663456848375</v>
+        <v>0.003485004227181002</v>
       </c>
       <c r="J15">
-        <v>0.002324663456848375</v>
+        <v>0.003485004227181002</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>0.297976</v>
       </c>
       <c r="O15">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861835</v>
       </c>
       <c r="P15">
-        <v>0.01147856830693082</v>
+        <v>0.009342124750861833</v>
       </c>
       <c r="Q15">
-        <v>0.02592126332444444</v>
+        <v>0.02103746979288889</v>
       </c>
       <c r="R15">
-        <v>0.23329136992</v>
+        <v>0.189337228136</v>
       </c>
       <c r="S15">
-        <v>2.668380828006E-05</v>
+        <v>3.255734424760576E-05</v>
       </c>
       <c r="T15">
-        <v>2.668380828006E-05</v>
+        <v>3.255734424760575E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2609733333333333</v>
+        <v>0.2118036666666666</v>
       </c>
       <c r="H16">
-        <v>0.7829199999999999</v>
+        <v>0.6354109999999999</v>
       </c>
       <c r="I16">
-        <v>0.002324663456848375</v>
+        <v>0.003485004227181002</v>
       </c>
       <c r="J16">
-        <v>0.002324663456848375</v>
+        <v>0.003485004227181002</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1423,28 +1423,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.379923</v>
+        <v>0.08773500000000001</v>
       </c>
       <c r="N16">
-        <v>1.139769</v>
+        <v>0.263205</v>
       </c>
       <c r="O16">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="P16">
-        <v>0.043905939809321</v>
+        <v>0.00825198655277804</v>
       </c>
       <c r="Q16">
-        <v>0.09914977172</v>
+        <v>0.018582594695</v>
       </c>
       <c r="R16">
-        <v>0.89234794548</v>
+        <v>0.167243352255</v>
       </c>
       <c r="S16">
-        <v>0.0001020665338133128</v>
+        <v>2.875820801907226E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001020665338133128</v>
+        <v>2.875820801907225E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2609733333333333</v>
+        <v>0.2118036666666666</v>
       </c>
       <c r="H17">
-        <v>0.7829199999999999</v>
+        <v>0.6354109999999999</v>
       </c>
       <c r="I17">
-        <v>0.002324663456848375</v>
+        <v>0.003485004227181002</v>
       </c>
       <c r="J17">
-        <v>0.002324663456848375</v>
+        <v>0.003485004227181002</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.144105333333334</v>
+        <v>10.370688</v>
       </c>
       <c r="N17">
-        <v>24.432316</v>
+        <v>31.112064</v>
       </c>
       <c r="O17">
-        <v>0.9411764977800856</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="P17">
-        <v>0.9411764977800857</v>
+        <v>0.9754234674765666</v>
       </c>
       <c r="Q17">
-        <v>2.125394315857778</v>
+        <v>2.196549744256</v>
       </c>
       <c r="R17">
-        <v>19.12854884272</v>
+        <v>19.768947698304</v>
       </c>
       <c r="S17">
-        <v>0.0021879186108339</v>
+        <v>0.003399354907447385</v>
       </c>
       <c r="T17">
-        <v>0.002187918610833901</v>
+        <v>0.003399354907447385</v>
       </c>
     </row>
   </sheetData>
